--- a/examples/rota_dt/spreadsheets/example-rota_dt.xlsx
+++ b/examples/rota_dt/spreadsheets/example-rota_dt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples\rota_dt\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26B01FF-A81D-4E57-9AAF-1593B5BF4A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008ACD20-6F96-4BF3-9770-3747463F0644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" xr2:uid="{C9CC07CA-097F-41A1-ADA2-CA7DD700E42B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="1" xr2:uid="{C9CC07CA-097F-41A1-ADA2-CA7DD700E42B}"/>
   </bookViews>
   <sheets>
     <sheet name="rooms" sheetId="5" r:id="rId1"/>
@@ -1139,7 +1139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E963BB-7B77-4EE7-A630-9D93E0ADAB12}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1244,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52552880-DF7C-412A-93D7-C0D5BD19AF8A}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2025,7 +2025,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>34</v>
